--- a/backend/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>38a8a1d3-b349-4ea5-a838-d6c9b5be52ab</t>
+    <t>c4478b02-b672-4294-bdc2-74663ae15131</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>c4478b02-b672-4294-bdc2-74663ae15131</t>
+    <t>5976d47d-172c-49d5-9423-b15471bf9d16</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>5976d47d-172c-49d5-9423-b15471bf9d16</t>
+    <t>4847c717-3a3b-4ed9-9f0b-ad5cbaa09e2d</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>4847c717-3a3b-4ed9-9f0b-ad5cbaa09e2d</t>
+    <t>a4083ac3-281f-441c-8300-3a69c7fcf361</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>a4083ac3-281f-441c-8300-3a69c7fcf361</t>
+    <t>197f3df1-0933-488b-b638-25454542e8b4</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>197f3df1-0933-488b-b638-25454542e8b4</t>
+    <t>05fa16b6-bbf5-4cfe-bae4-a83cc5df3e4e</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>
